--- a/biology/Médecine/Ivan_Neoumyvakine/Ivan_Neoumyvakine.xlsx
+++ b/biology/Médecine/Ivan_Neoumyvakine/Ivan_Neoumyvakine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ivan Pavlovitch Neoumyvakine (en russe : Иван Павлович Неумывакин), né le 7 juillet 1928 à Bichkek en Union soviétique et mort le 22 avril 2018 à Russie est un médecin russe, professeur[1],[2],[3].
-Il est connu comme l'un des fondateurs de la médecine spatiale[2],[4].
-Il est doktor nauk en médecine membre de l'Académie russe des sciences naturelles[5],[2],[3].
+Ivan Pavlovitch Neoumyvakine (en russe : Иван Павлович Неумывакин), né le 7 juillet 1928 à Bichkek en Union soviétique et mort le 22 avril 2018 à Russie est un médecin russe, professeur.
+Il est connu comme l'un des fondateurs de la médecine spatiale,.
+Il est doktor nauk en médecine membre de l'Académie russe des sciences naturelles.
 En 1982, il a défendu sa thèse de doctorat.
 Il est diplômé de l'Institut médecine de Bichkek (1951). 
-Il est l'auteur de plus de 200 articles scientifiques et auteur auteur de 100 livres[3],[6].
+Il est l'auteur de plus de 200 articles scientifiques et auteur auteur de 100 livres,.
 </t>
         </is>
       </c>
